--- a/data/Data_1.xlsx
+++ b/data/Data_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mureev\Dropbox\SKILLFACTORY\IDE\split_tRNA_MANUSCRIPT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mureev\Dropbox\SKILLFACTORY\IDE\Split_tRNA_Selection_Model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -110,24 +110,6 @@
   </si>
   <si>
     <r>
-      <t>initial estimates for ∆G</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">N36-N39 </t>
-    </r>
-  </si>
-  <si>
-    <t>average of the above two</t>
-  </si>
-  <si>
-    <r>
       <t>Davies et al.</t>
     </r>
     <r>
@@ -152,6 +134,24 @@
   </si>
   <si>
     <t>Frechet et al. 1979</t>
+  </si>
+  <si>
+    <t>averaged</t>
+  </si>
+  <si>
+    <r>
+      <t>Initial estimates for ∆G</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">N36-N39 </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A2:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
       <c r="C2" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -756,7 +756,7 @@
         <v>-1.7540197241045978</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -813,7 +813,7 @@
         <v>-1.752258064516129</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -870,7 +870,7 @@
         <v>-1.7540197241045981</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
